--- a/biology/Botanique/Alopecurus_geniculatus/Alopecurus_geniculatus.xlsx
+++ b/biology/Botanique/Alopecurus_geniculatus/Alopecurus_geniculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecurus geniculatus, le vulpin genouillé, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire des régions tempérées de l'Ancien Monde.
 Ce sont des plantes herbacées, vivaces, aux tiges (chaumes) décombantes de 45 cm de long, aux inflorescences en panicules denses, spiciformes.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (10 décembre 2017)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (10 décembre 2017) :
 Alopecurus aristulosus Desv.
 Alopecurus australis Nees
 Alopecurus bulbosus With., nom. illeg.
@@ -530,8 +547,43 @@
 Alopecurus palustris subsp. geniculatus (L.) Syme
 Alopecurus subaristatus Pursh, nom. illeg.
 Tozzettia geniculata (L.) Bubani
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (10 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alopecurus_geniculatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alopecurus_geniculatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (10 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce :
 Alopecurus geniculatus subsp. fulvus (Sm.) Cout.
 variétés :
